--- a/data/trans_orig/P1430-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0DA522-0A2A-4063-90A5-BDAD510D9C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A111213C-F823-4EC7-ADF9-82EB4792F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{643E95EB-3CA9-4EA3-A430-29DEC6DCC49A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB90A258-03C0-41C6-BE3A-4AB2298BAFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="148">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,19 +94,19 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -115,7 +115,7 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,25 +124,25 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -175,292 +175,274 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
@@ -485,9 +467,6 @@
   </si>
   <si>
     <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -914,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D2895D-2054-47C4-9DCF-15A864DD316E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB7AEA-DCAD-4C69-BABE-95D378C03D12}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1373,7 +1352,7 @@
         <v>3473</v>
       </c>
       <c r="N10" s="7">
-        <v>3701979</v>
+        <v>3701978</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1424,7 +1403,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1707,10 +1686,10 @@
         <v>24933</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>69</v>
@@ -1725,10 +1704,10 @@
         <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1737,13 +1716,13 @@
         <v>47104</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1737,13 @@
         <v>3394849</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H18" s="7">
         <v>3271</v>
@@ -1773,28 +1752,28 @@
         <v>3528848</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>6451</v>
       </c>
       <c r="N18" s="7">
-        <v>6923697</v>
+        <v>6923698</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,7 +1815,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1850,7 +1829,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0150064D-7E5C-48A5-80CC-C396559445C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6867578-7D72-4028-A187-D1EAD48A633E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1886,7 +1865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1999,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2014,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2044,10 +2023,10 @@
         <v>5064</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>88</v>
@@ -2062,7 +2041,7 @@
         <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>90</v>
@@ -2101,7 +2080,7 @@
         <v>95</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="H6" s="7">
         <v>887</v>
@@ -2110,13 +2089,13 @@
         <v>988162</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="M6" s="7">
         <v>1644</v>
@@ -2271,7 +2250,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2283,10 +2262,10 @@
         <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2280,13 @@
         <v>2063053</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>1903</v>
@@ -2316,13 +2295,13 @@
         <v>1982885</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>3843</v>
@@ -2334,10 +2313,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,37 +2390,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2435,13 @@
         <v>6367</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2471,13 +2450,13 @@
         <v>1807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2486,13 +2465,13 @@
         <v>8174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2486,13 @@
         <v>540519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -2522,10 +2501,10 @@
         <v>547333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
@@ -2537,13 +2516,13 @@
         <v>1087852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2641,13 @@
         <v>24764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2677,13 +2656,13 @@
         <v>13720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2692,13 +2671,13 @@
         <v>38483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2692,13 @@
         <v>3352854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>3314</v>
@@ -2728,13 +2707,13 @@
         <v>3518380</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>6507</v>
@@ -2743,13 +2722,13 @@
         <v>6871235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2784,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F540D1F-DA7C-458E-A331-A37AB79C6A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80235654-9E19-477B-903E-800DC5B62826}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2951,7 +2930,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -2966,7 +2945,7 @@
         <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -2981,7 +2960,7 @@
         <v>63</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3005,7 +2984,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3020,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3056,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3071,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3157,7 +3136,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3166,13 +3145,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3187,7 +3166,7 @@
         <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3226,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3241,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3292,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3298,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3363,7 +3342,7 @@
         <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3378,7 +3357,7 @@
         <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3393,7 +3372,7 @@
         <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3417,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3432,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3447,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3483,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3498,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3542,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3584,7 +3563,7 @@
         <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3593,13 +3572,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3638,7 +3617,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3653,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3704,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3695,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3746,7 +3725,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3760,7 +3739,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1430-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A111213C-F823-4EC7-ADF9-82EB4792F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DAA101-298E-4342-AB2D-03E32B8AAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB90A258-03C0-41C6-BE3A-4AB2298BAFAE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6FBAE502-D5BC-4F1F-9B19-7052885C1397}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="153">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,10 +94,10 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -106,16 +106,13 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +121,25 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,7 +163,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,78%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -184,253 +178,268 @@
     <t>0,45%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>98,87%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -439,34 +448,40 @@
     <t>99,61%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -893,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB7AEA-DCAD-4C69-BABE-95D378C03D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EEF488-EEC2-4201-AE7D-7F1F55FB0A7F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1089,7 +1104,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -1098,19 +1113,19 @@
         <v>30533</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>894</v>
@@ -1119,13 +1134,13 @@
         <v>957928</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>1234</v>
@@ -1134,13 +1149,13 @@
         <v>1323977</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>2128</v>
@@ -1149,13 +1164,13 @@
         <v>2281907</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,13 +1185,13 @@
         <v>974643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1247</v>
@@ -1185,13 +1200,13 @@
         <v>1337796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2155</v>
@@ -1200,18 +1215,18 @@
         <v>2312440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1229,37 +1244,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,13 +1289,13 @@
         <v>8218</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1289,13 +1304,13 @@
         <v>8353</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -1304,19 +1319,19 @@
         <v>16571</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1848</v>
@@ -1325,13 +1340,13 @@
         <v>1955739</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1625</v>
@@ -1340,28 +1355,28 @@
         <v>1746239</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>3473</v>
       </c>
       <c r="N10" s="7">
-        <v>3701978</v>
+        <v>3701979</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,13 +1391,13 @@
         <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1633</v>
@@ -1391,33 +1406,33 @@
         <v>1754592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1435,37 +1450,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,43 +1501,43 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>438</v>
@@ -1531,13 +1546,13 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
         <v>412</v>
@@ -1546,13 +1561,13 @@
         <v>458631</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>850</v>
@@ -1561,13 +1576,13 @@
         <v>939812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,13 +1597,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>412</v>
@@ -1597,13 +1612,13 @@
         <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -1612,13 +1627,13 @@
         <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,7 +1656,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1656,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1671,7 +1686,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1701,13 @@
         <v>24933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1701,13 +1716,13 @@
         <v>22172</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1716,19 +1731,19 @@
         <v>47104</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3180</v>
@@ -1737,13 +1752,13 @@
         <v>3394849</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7">
         <v>3271</v>
@@ -1752,28 +1767,28 @@
         <v>3528848</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>6451</v>
       </c>
       <c r="N18" s="7">
-        <v>6923698</v>
+        <v>6923697</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1803,13 @@
         <v>3419782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3292</v>
@@ -1803,33 +1818,33 @@
         <v>3551020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6867578-7D72-4028-A187-D1EAD48A633E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1294E8-5F3B-4C17-BCEC-D2962D888A86}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1865,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1978,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1993,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2008,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2038,13 @@
         <v>5064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2038,13 +2053,13 @@
         <v>6498</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2053,19 +2068,19 @@
         <v>11561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>757</v>
@@ -2074,13 +2089,13 @@
         <v>749283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H6" s="7">
         <v>887</v>
@@ -2089,13 +2104,13 @@
         <v>988162</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="M6" s="7">
         <v>1644</v>
@@ -2104,13 +2119,13 @@
         <v>1737446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2140,13 @@
         <v>754347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>892</v>
@@ -2140,13 +2155,13 @@
         <v>994660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>1654</v>
@@ -2155,18 +2170,18 @@
         <v>1749007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2184,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2199,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2214,7 +2229,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2244,13 @@
         <v>13332</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -2244,10 +2259,10 @@
         <v>5415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>103</v>
@@ -2259,19 +2274,19 @@
         <v>18748</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1940</v>
@@ -2280,13 +2295,13 @@
         <v>2063053</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>1903</v>
@@ -2295,13 +2310,13 @@
         <v>1982885</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>3843</v>
@@ -2310,13 +2325,13 @@
         <v>4045937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2346,13 @@
         <v>2076385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -2346,13 +2361,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3860</v>
@@ -2361,18 +2376,18 @@
         <v>4064685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2435,13 +2450,13 @@
         <v>6367</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2450,13 +2465,13 @@
         <v>1807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2465,19 +2480,19 @@
         <v>8174</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>496</v>
@@ -2486,7 +2501,7 @@
         <v>540519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>123</v>
@@ -2501,13 +2516,13 @@
         <v>547333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>1020</v>
@@ -2516,13 +2531,13 @@
         <v>1087852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2552,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -2552,13 +2567,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1027</v>
@@ -2567,13 +2582,13 @@
         <v>1096026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2611,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2626,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2656,13 @@
         <v>24764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2656,13 +2671,13 @@
         <v>13720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2677,13 +2692,13 @@
         <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3193</v>
@@ -2692,13 +2707,13 @@
         <v>3352854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H18" s="7">
         <v>3314</v>
@@ -2707,13 +2722,13 @@
         <v>3518380</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>6507</v>
@@ -2722,13 +2737,13 @@
         <v>6871235</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2758,13 @@
         <v>3377618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3326</v>
@@ -2758,13 +2773,13 @@
         <v>3532100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6541</v>
@@ -2773,18 +2788,18 @@
         <v>6909718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80235654-9E19-477B-903E-800DC5B62826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCACB886-0E5F-4474-830D-DEC47C51E9D1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2820,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2927,13 +2942,13 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -2942,13 +2957,13 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7">
         <v>2118</v>
@@ -2957,13 +2972,13 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2999,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3020,7 +3035,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3035,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3050,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3080,13 +3095,13 @@
         <v>541634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1427</v>
@@ -3095,13 +3110,13 @@
         <v>835953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2118</v>
@@ -3110,18 +3125,18 @@
         <v>1377586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3133,13 +3148,13 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>2921</v>
@@ -3148,13 +3163,13 @@
         <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>4913</v>
@@ -3163,13 +3178,13 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3205,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3220,13 +3235,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3241,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3256,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3271,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3301,13 @@
         <v>2162022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>2921</v>
@@ -3301,13 +3316,13 @@
         <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>4913</v>
@@ -3316,18 +3331,18 @@
         <v>4411543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3339,13 +3354,13 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
@@ -3354,13 +3369,13 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
@@ -3369,13 +3384,13 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3426,13 +3441,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3447,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3477,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3507,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>1004</v>
@@ -3507,13 +3522,13 @@
         <v>713886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1685</v>
@@ -3522,13 +3537,13 @@
         <v>1386926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3560,13 @@
         <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>5352</v>
@@ -3560,13 +3575,13 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M16" s="7">
         <v>8716</v>
@@ -3575,13 +3590,13 @@
         <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3617,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3617,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3632,13 +3647,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3653,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3668,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3683,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3713,13 @@
         <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>5352</v>
@@ -3713,13 +3728,13 @@
         <v>3799360</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>8716</v>
@@ -3728,18 +3743,18 @@
         <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1430-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46511893-C58A-488F-99A3-AA8938B0FED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A120E2-9753-4449-9015-E12BD5B0272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755FF9BA-D0BE-47B2-BF6D-079538EE58BA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{961D7EF3-A1D4-4243-A5F0-5802F165268E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60B01CF-1C5E-4E06-B855-A39BA46B939B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93621432-623C-4CC8-86DD-A34DD868A3E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1025,7 +1025,7 @@
         <v>1234</v>
       </c>
       <c r="I5" s="7">
-        <v>1323977</v>
+        <v>1323978</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1076,7 +1076,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1195,7 +1195,7 @@
         <v>3473</v>
       </c>
       <c r="N8" s="7">
-        <v>3701979</v>
+        <v>3701978</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1246,7 +1246,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1350,7 +1350,7 @@
         <v>850</v>
       </c>
       <c r="N11" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>56</v>
@@ -1401,7 +1401,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D85FF9-E74C-4CFB-8927-1CCA1104C95B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186AB8A-85EE-4957-AFF7-A765CC112D25}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2101,7 +2101,7 @@
         <v>1020</v>
       </c>
       <c r="N11" s="7">
-        <v>1087852</v>
+        <v>1087853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>117</v>
@@ -2152,7 +2152,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
